--- a/excel/import_bidang.xlsx
+++ b/excel/import_bidang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\lana\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE68535-FAAF-47D1-8247-DD1782D6D4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8716B07E-0C1C-4FB3-833E-B7D479E48898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>nama_bidang</t>
   </si>
@@ -433,33 +433,35 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B73"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.21875" customWidth="1"/>
-    <col min="7" max="1025" width="11.5546875"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
+    <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="1"/>
@@ -467,7 +469,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
@@ -475,7 +477,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1"/>
@@ -483,7 +485,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
@@ -491,7 +493,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1"/>
@@ -499,7 +501,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
@@ -507,7 +509,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
@@ -515,7 +517,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
@@ -523,7 +525,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
@@ -531,7 +533,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="1"/>
@@ -539,251 +541,251 @@
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="8"/>
     </row>
-    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="8"/>
     </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="10"/>
     </row>
-    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="12"/>
     </row>
-    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="8"/>
     </row>
-    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="8"/>
     </row>
-    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="8"/>
     </row>
-    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="8"/>
     </row>
-    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="8"/>
     </row>
-    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="11"/>
     </row>
